--- a/script/flask/env/status.xlsx
+++ b/script/flask/env/status.xlsx
@@ -32,8 +32,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -42,21 +41,6 @@
       <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,9 +54,76 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,7 +137,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -101,59 +153,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -183,13 +183,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,55 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,103 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,21 +374,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,6 +402,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -431,26 +431,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,140 +497,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,10 +1020,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="0"/>
+  <cols>
+    <col width="24.8888888888889" customWidth="1" style="2" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -1047,7 +1051,7 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>K Number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
@@ -1066,21 +1070,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>yughj</t>
+          <t>jg</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>ghfg</t>
+          <t>jhg</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>210453003747</t>
+          <t>130621005940</t>
         </is>
       </c>
       <c r="F2" s="0" t="n">
@@ -1097,25 +1101,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>hjf</t>
+          <t>gfgh</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>kjgkjg</t>
+          <t>mbnv</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>210453035910</t>
+          <t>130113014119</t>
         </is>
       </c>
       <c r="F3" s="0" t="n">
-        <v>656</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
